--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد سامح عبدالعزيز ابوسيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
   </x:si>
   <x:si>
     <x:t>1210090</x:t>
@@ -263,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1006,7 +997,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.8698584143</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1023,38 +1014,6 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20">
-      <x:c r="A14" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E14" s="3">
-        <x:v>45914.696887037</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="2" t="s"/>
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="2" t="s"/>
-      <x:c r="K14" s="2" t="s"/>
-      <x:c r="L14" s="2" t="s"/>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-      <x:c r="Q14" s="2" t="s"/>
-      <x:c r="R14" s="2" t="s"/>
-      <x:c r="S14" s="2" t="s"/>
-      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Hazem Mohamed Sayed Kotb Rabea</x:t>
   </x:si>
   <x:si>
+    <x:t>1210220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد علي فتحي ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Ali Fathi Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210137</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>AlaaEldin Hamed Mohamed Mahmoud Salem</x:t>
   </x:si>
   <x:si>
+    <x:t>1210260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد ماهر قداح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Maher Kaddah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210266</x:t>
   </x:si>
   <x:si>
@@ -105,6 +123,15 @@
     <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
+    <x:t>1210298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان أحمد عبدالعزيز إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ahmed Abdelaziz Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210115</x:t>
   </x:si>
   <x:si>
@@ -130,6 +157,24 @@
   </x:si>
   <x:si>
     <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد مصطفى احمد الحديدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noor Ahmed Mostafa Ahmed AlHadidi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1210090</x:t>
@@ -254,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -709,7 +754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.423024919</x:v>
+        <x:v>45923.5840855324</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -741,7 +786,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45909.423024919</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -773,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4148232292</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4161082176</x:v>
+        <x:v>45909.4148232292</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45909.4161082176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.7855064815</x:v>
+        <x:v>45923.5822278935</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45913.7855064815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4150018171</x:v>
+        <x:v>45923.5830424421</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1059,166 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45915.7091989583</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45909.4150018171</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45923.5813193287</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45923.5817521181</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسر تامر محمد وجدى محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asser Tamer Mohamed Wagdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220116</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,7 +699,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.4166687847</x:v>
+        <x:v>45924.9479451736</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -722,7 +731,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45913.7856849884</x:v>
+        <x:v>45909.4166687847</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -754,7 +763,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45923.5840855324</x:v>
+        <x:v>45913.7856849884</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -786,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.423024919</x:v>
+        <x:v>45923.5840855324</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -818,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45909.423024919</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4148232292</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4161082176</x:v>
+        <x:v>45909.4148232292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.5822278935</x:v>
+        <x:v>45909.4161082176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45923.5822278935</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.7855064815</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45923.5830424421</x:v>
+        <x:v>45913.7855064815</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45923.5830424421</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4150018171</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45923.5813193287</x:v>
+        <x:v>45909.4150018171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45923.5817521181</x:v>
+        <x:v>45923.5813193287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45923.5817521181</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed abdelbar hammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايمن محمد رضا عبدالحكم علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ayman Mohamed Reda AbdelHakam Aly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Hazem Mohamed Sayed Kotb Rabea</x:t>
   </x:si>
   <x:si>
+    <x:t>1210005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين عصام محمود حسين جاد المولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hussein Essam Mahmoud Hussein Gad el mola</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210220</x:t>
   </x:si>
   <x:si>
@@ -148,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Mohammed Mohammed Elsoufy Abd Elhameed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى أحمد عبدالفتاح القرشي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
   </x:si>
   <x:si>
     <x:t>1210377</x:t>
@@ -317,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -804,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45923.5840855324</x:v>
+        <x:v>45927.4298023148</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.423024919</x:v>
+        <x:v>45923.5840855324</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45909.423024919</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4148232292</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4161082176</x:v>
+        <x:v>45909.4148232292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.5822278935</x:v>
+        <x:v>45909.4161082176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45923.5822278935</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.7855064815</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.5830424421</x:v>
+        <x:v>45913.7855064815</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45923.5830424421</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4150018171</x:v>
+        <x:v>45927.4546847222</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45923.5813193287</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45923.5817521181</x:v>
+        <x:v>45909.4150018171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45923.5813193287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45923.5817521181</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1319,70 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهاب ياسر السيد سالم البحراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210316</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4150018171</x:v>
+        <x:v>45923.5813193287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.5813193287</x:v>
+        <x:v>45923.5817521181</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45923.5817521181</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45925.6739006944</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45925.6739006944</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران شمس الدين محمد علوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1210090</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45928.5846795949</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Salah Moselhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم مجدى منير محمود العكام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Magdy Mounir</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.7855064815</x:v>
+        <x:v>45929.4225984954</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45923.5830424421</x:v>
+        <x:v>45913.7855064815</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45923.5830424421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4546847222</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45927.4546847222</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45923.5813193287</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.5817521181</x:v>
+        <x:v>45923.5813193287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.5846795949</x:v>
+        <x:v>45923.5817521181</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45928.5846795949</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35875.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35875.xlsx
@@ -78,15 +78,6 @@
     <x:t>Khaled Ali Fathi Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1210137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد هشام فهمي محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>2230012</x:t>
   </x:si>
   <x:si>
@@ -139,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Magdy Mounir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم محمد سيد احمد على عبد ربه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim mohamed sayed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
@@ -895,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.423024919</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45909.4148232292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4148232292</x:v>
+        <x:v>45909.4161082176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4161082176</x:v>
+        <x:v>45923.5822278935</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45923.5822278935</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45929.4225984954</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45929.4225984954</x:v>
+        <x:v>45932.4620121528</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
